--- a/analysis/countries_stat.xlsx
+++ b/analysis/countries_stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\research\covid-19\COVID-19\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBD97DC-95D8-456A-8237-8B27B9CCCD99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4460DC2-C710-4924-938E-9A92827C659C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -811,7 +811,7 @@
   <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
